--- a/PROJECTS MACRO/MACRO_PROCESS - Report Aging PerGL PerBranch/RPA Preference/.Source/JDE/1201_INUM.xlsx
+++ b/PROJECTS MACRO/MACRO_PROCESS - Report Aging PerGL PerBranch/RPA Preference/.Source/JDE/1201_INUM.xlsx
@@ -1,42 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25911"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wwinarsih\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.8.0.35\rpa$\RPA Excel Template\Accounting Finance\MACRO_PROCESS - Report Aging PerGL PerBranch\RPA Preference\.Source\JDE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{97D48CD9-688B-4E73-A1A2-1F971DD8CF2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F2B635B1-4F31-48F5-B902-8EA949CE5EFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{2D673A12-C03E-4E2F-B6AA-8D9D4F21069C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
-    <sheet name="INUM" sheetId="1" r:id="rId1"/>
+    <sheet name="R5641114_GG0001_1956865_PDF (1)" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="122">
   <si>
     <t>þÿ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6:46:08</t>
   </si>
   <si>
     <t>R5644111</t>
@@ -402,24 +391,325 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Bahnschrift"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -427,18 +717,206 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="42">
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -454,7 +932,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -742,246 +1220,250 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3051A444-BF86-421F-845C-E1AF7F17CF96}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="S1" s="1">
-        <v>45601</v>
-      </c>
-      <c r="T1" s="2">
-        <v>0.89415509259259263</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+        <v>45722</v>
+      </c>
+      <c r="T1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="I3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="S4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="J5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="I6">
         <v>1201</v>
       </c>
       <c r="K6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Q8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="R8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="T9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="R10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>76741</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J11" s="1">
-        <v>45545</v>
+        <v>45713</v>
+      </c>
+      <c r="K11">
+        <v>61</v>
+      </c>
+      <c r="M11">
+        <v>18.440000000000001</v>
       </c>
       <c r="P11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R11">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="T11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>79242</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J12" s="1">
         <v>44062</v>
       </c>
       <c r="P12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="R12">
-        <v>1535</v>
+        <v>1655</v>
       </c>
       <c r="T12">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>79245</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J13" s="1">
         <v>40662</v>
       </c>
       <c r="P13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="R13">
-        <v>4935</v>
+        <v>5055</v>
       </c>
       <c r="T13">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>79248</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J14" s="1">
-        <v>45218</v>
+        <v>45713</v>
       </c>
       <c r="K14">
-        <v>436</v>
+        <v>358</v>
       </c>
       <c r="M14">
-        <v>78.349999999999994</v>
+        <v>66.22</v>
       </c>
       <c r="P14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R14">
-        <v>379</v>
+        <v>4</v>
       </c>
       <c r="T14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>79252</v>
       </c>
       <c r="C15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>79254</v>
       </c>
       <c r="C16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>79256</v>
       </c>
       <c r="C17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J17" s="1">
         <v>39941</v>
@@ -990,24 +1472,24 @@
         <v>-150.05000000000001</v>
       </c>
       <c r="P17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="R17">
-        <v>5656</v>
+        <v>5776</v>
       </c>
       <c r="T17">
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>79257</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J18" s="1">
         <v>40542</v>
@@ -1016,191 +1498,194 @@
         <v>-495000</v>
       </c>
       <c r="P18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R18">
-        <v>5055</v>
+        <v>5175</v>
       </c>
       <c r="T18">
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>79258</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F19" t="s">
+        <v>37</v>
+      </c>
+      <c r="P19" t="s">
         <v>36</v>
       </c>
-      <c r="P19" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>79260</v>
       </c>
       <c r="C20" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F20" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J20" s="1">
         <v>45377</v>
       </c>
       <c r="P20" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R20">
-        <v>220</v>
+        <v>340</v>
       </c>
       <c r="T20">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>79263</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F21" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P21" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>79266</v>
       </c>
       <c r="C22" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P22" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>79267</v>
       </c>
       <c r="C23" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P23" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>79268</v>
       </c>
       <c r="C24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P24" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>79269</v>
       </c>
       <c r="C25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P25" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>79270</v>
       </c>
       <c r="C26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J26" s="1">
         <v>40528</v>
       </c>
       <c r="P26" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R26">
-        <v>5069</v>
+        <v>5189</v>
       </c>
       <c r="T26">
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>79271</v>
       </c>
       <c r="C27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J27" s="1">
         <v>42416</v>
       </c>
       <c r="P27" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R27">
-        <v>3181</v>
+        <v>3301</v>
       </c>
       <c r="T27">
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>79272</v>
       </c>
       <c r="C28" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F28" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J28" s="1">
-        <v>45555</v>
+        <v>45707</v>
       </c>
       <c r="K28">
-        <v>-6</v>
+        <v>-4</v>
+      </c>
+      <c r="M28">
+        <v>171.41</v>
       </c>
       <c r="P28" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="R28">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="T28">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>79273</v>
       </c>
       <c r="C29" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J29" s="1">
-        <v>44237</v>
+        <v>45649</v>
       </c>
       <c r="K29">
         <v>-246006</v>
@@ -1209,127 +1694,124 @@
         <v>-1500.53</v>
       </c>
       <c r="P29" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R29">
-        <v>1360</v>
+        <v>68</v>
       </c>
       <c r="T29">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>79274</v>
       </c>
       <c r="C30" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F30" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P30" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>79278</v>
       </c>
       <c r="C31" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P31" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>79279</v>
       </c>
       <c r="C32" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J32" s="1">
         <v>40877</v>
       </c>
       <c r="P32" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R32">
-        <v>4720</v>
+        <v>4840</v>
       </c>
       <c r="T32">
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>79280</v>
       </c>
       <c r="C33" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F33" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J33" s="1">
-        <v>45525</v>
+        <v>45713</v>
       </c>
       <c r="K33">
-        <v>0.99</v>
+        <v>-0.01</v>
       </c>
       <c r="M33">
-        <v>-12.43</v>
+        <v>-12.59</v>
       </c>
       <c r="P33" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R33">
-        <v>72</v>
+        <v>4</v>
       </c>
       <c r="T33">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>79282</v>
       </c>
       <c r="C34" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F34" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J34" s="1">
-        <v>45055</v>
-      </c>
-      <c r="K34">
-        <v>-61</v>
+        <v>45631</v>
       </c>
       <c r="M34">
-        <v>-14.41</v>
+        <v>-8.81</v>
       </c>
       <c r="P34" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R34">
-        <v>542</v>
+        <v>86</v>
       </c>
       <c r="T34">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>79286</v>
       </c>
       <c r="C35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J35" s="1">
         <v>42604</v>
@@ -1338,24 +1820,24 @@
         <v>-54.24</v>
       </c>
       <c r="P35" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R35">
-        <v>2993</v>
+        <v>3113</v>
       </c>
       <c r="T35">
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>79293</v>
       </c>
       <c r="C36" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F36" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J36" s="1">
         <v>44665</v>
@@ -1367,21 +1849,21 @@
         <v>688.27</v>
       </c>
       <c r="P36" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R36">
-        <v>932</v>
+        <v>1052</v>
       </c>
       <c r="T36">
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>79296</v>
       </c>
       <c r="C37" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J37" s="1">
         <v>43823</v>
@@ -1390,270 +1872,270 @@
         <v>-2655</v>
       </c>
       <c r="P37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="R37">
-        <v>1774</v>
+        <v>1894</v>
       </c>
       <c r="T37">
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>79300</v>
       </c>
       <c r="C38" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F38" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J38" s="1">
         <v>42341</v>
       </c>
       <c r="P38" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R38">
-        <v>3256</v>
+        <v>3376</v>
       </c>
       <c r="T38">
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>79303</v>
       </c>
       <c r="C39" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F39" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J39" s="1">
-        <v>45546</v>
+        <v>45709</v>
       </c>
       <c r="K39">
-        <v>1460</v>
+        <v>860</v>
       </c>
       <c r="M39">
-        <v>888.04</v>
+        <v>523.16999999999996</v>
       </c>
       <c r="P39" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R39">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="T39">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>79307</v>
       </c>
       <c r="C40" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F40" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P40" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>79310</v>
       </c>
       <c r="C41" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F41" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P41" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>79313</v>
       </c>
       <c r="C42" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F42" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J42" s="1">
         <v>41081</v>
       </c>
       <c r="P42" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R42">
-        <v>4516</v>
+        <v>4636</v>
       </c>
       <c r="T42">
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>79316</v>
       </c>
       <c r="C43" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F43" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P43" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>79319</v>
       </c>
       <c r="C44" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P44" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>79322</v>
       </c>
       <c r="C45" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P45" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>79325</v>
       </c>
       <c r="C46" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F46" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P46" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>79328</v>
       </c>
       <c r="C47" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J47" s="1">
         <v>40603</v>
       </c>
       <c r="P47" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R47">
-        <v>4994</v>
+        <v>5114</v>
       </c>
       <c r="T47">
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>79330</v>
       </c>
       <c r="C48" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F48" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P48" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>79331</v>
       </c>
       <c r="C49" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F49" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J49" s="1">
         <v>40200</v>
       </c>
       <c r="P49" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R49">
-        <v>5397</v>
+        <v>5517</v>
       </c>
       <c r="T49">
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>79333</v>
       </c>
       <c r="C50" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F50" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="P50" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>87885</v>
       </c>
       <c r="C51" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="P51" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>87887</v>
       </c>
       <c r="C52" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P52" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>88349</v>
       </c>
       <c r="C53" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F53" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J53" s="1">
         <v>44131</v>
@@ -1662,24 +2144,24 @@
         <v>-1656</v>
       </c>
       <c r="P53" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R53">
-        <v>1466</v>
+        <v>1586</v>
       </c>
       <c r="T53">
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>88365</v>
       </c>
       <c r="C54" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F54" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J54" s="1">
         <v>43599</v>
@@ -1688,199 +2170,199 @@
         <v>-1200</v>
       </c>
       <c r="P54" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R54">
-        <v>1998</v>
+        <v>2118</v>
       </c>
       <c r="T54">
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>91150</v>
       </c>
       <c r="C55" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F55" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J55" s="1">
         <v>41074</v>
       </c>
       <c r="P55" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R55">
-        <v>4523</v>
+        <v>4643</v>
       </c>
       <c r="T55">
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>91750</v>
       </c>
       <c r="C56" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J56" s="1">
         <v>44882</v>
       </c>
       <c r="P56" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R56">
-        <v>715</v>
+        <v>835</v>
       </c>
       <c r="T56">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>97069</v>
       </c>
       <c r="C57" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F57" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="J57" s="1">
         <v>40791</v>
       </c>
       <c r="P57" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R57">
-        <v>4806</v>
+        <v>4926</v>
       </c>
       <c r="T57">
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>98076</v>
       </c>
       <c r="C58" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F58" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J58" s="1">
         <v>40249</v>
       </c>
       <c r="P58" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="R58">
-        <v>5348</v>
+        <v>5468</v>
       </c>
       <c r="T58">
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>98077</v>
       </c>
       <c r="C59" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F59" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J59" s="1">
         <v>39601</v>
       </c>
       <c r="P59" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="R59">
-        <v>5996</v>
+        <v>6116</v>
       </c>
       <c r="T59">
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>100781</v>
       </c>
       <c r="C60" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J60" s="1">
         <v>40262</v>
       </c>
       <c r="P60" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="R60">
-        <v>5335</v>
+        <v>5455</v>
       </c>
       <c r="T60">
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>114898</v>
       </c>
       <c r="C61" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J61" s="1">
         <v>41862</v>
       </c>
       <c r="P61" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="R61">
-        <v>3735</v>
+        <v>3855</v>
       </c>
       <c r="T61">
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>136022</v>
       </c>
       <c r="C62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F62" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J62" s="1">
         <v>43668</v>
       </c>
       <c r="P62" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R62">
-        <v>1929</v>
+        <v>2049</v>
       </c>
       <c r="T62">
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>149711</v>
       </c>
       <c r="C63" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F63" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J63" s="1">
         <v>44795</v>
@@ -1892,53 +2374,53 @@
         <v>818.16</v>
       </c>
       <c r="P63" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R63">
-        <v>802</v>
+        <v>922</v>
       </c>
       <c r="T63">
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>197417</v>
       </c>
       <c r="C64" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F64" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J64" s="1">
         <v>43847</v>
       </c>
       <c r="K64">
-        <v>8619</v>
+        <v>8373</v>
       </c>
       <c r="M64">
-        <v>1333.37</v>
+        <v>1295.31</v>
       </c>
       <c r="P64" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R64">
-        <v>1750</v>
+        <v>1870</v>
       </c>
       <c r="T64">
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>220249</v>
       </c>
       <c r="C65" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F65" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="J65" s="1">
         <v>45286</v>
@@ -1950,24 +2432,24 @@
         <v>113.16</v>
       </c>
       <c r="P65" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R65">
-        <v>311</v>
+        <v>431</v>
       </c>
       <c r="T65">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>253820</v>
       </c>
       <c r="C66" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F66" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J66" s="1">
         <v>44953</v>
@@ -1979,24 +2461,24 @@
         <v>177.02</v>
       </c>
       <c r="P66" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R66">
-        <v>644</v>
+        <v>764</v>
       </c>
       <c r="T66">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>257931</v>
       </c>
       <c r="C67" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F67" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="J67" s="1">
         <v>44372</v>
@@ -2005,70 +2487,70 @@
         <v>4.54</v>
       </c>
       <c r="M67">
-        <v>8.4600000000000009</v>
+        <v>8.89</v>
       </c>
       <c r="P67" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R67">
-        <v>1225</v>
+        <v>1345</v>
       </c>
       <c r="T67">
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>258278</v>
       </c>
       <c r="C68" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F68" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J68" s="1">
         <v>44523</v>
       </c>
       <c r="P68" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R68">
-        <v>1074</v>
+        <v>1194</v>
       </c>
       <c r="T68">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>258625</v>
       </c>
       <c r="C69" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F69" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J69" s="1">
         <v>43966</v>
       </c>
       <c r="P69" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R69">
-        <v>1631</v>
+        <v>1751</v>
       </c>
       <c r="T69">
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>258728</v>
       </c>
       <c r="C70" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F70">
         <v>250</v>
@@ -2077,162 +2559,162 @@
         <v>44470</v>
       </c>
       <c r="P70" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R70">
-        <v>1127</v>
+        <v>1247</v>
       </c>
       <c r="T70">
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>264921</v>
       </c>
       <c r="C71" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="J71" s="1">
         <v>44720</v>
       </c>
       <c r="P71" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R71">
-        <v>877</v>
+        <v>997</v>
       </c>
       <c r="T71">
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>268649</v>
       </c>
       <c r="C72" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F72" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="J72" s="1">
         <v>44523</v>
       </c>
       <c r="P72" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R72">
-        <v>1074</v>
+        <v>1194</v>
       </c>
       <c r="T72">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>276660</v>
       </c>
       <c r="C73" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J73" s="1">
-        <v>45485</v>
+        <v>45713</v>
       </c>
       <c r="P73" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R73">
-        <v>112</v>
+        <v>4</v>
       </c>
       <c r="T73">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A75" s="3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A75" s="2">
         <v>32874</v>
       </c>
       <c r="B75" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C75" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D75">
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
+        <v>117</v>
+      </c>
+      <c r="B76" t="s">
+        <v>115</v>
+      </c>
+      <c r="C76" t="s">
         <v>116</v>
-      </c>
-      <c r="B76" t="s">
-        <v>114</v>
-      </c>
-      <c r="C76" t="s">
-        <v>115</v>
       </c>
       <c r="D76">
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B77" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C77" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D77">
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B78" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C78" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D78">
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B79" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C79" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D79">
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B80" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C80" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D80">
         <v>6</v>
